--- a/content.xlsx
+++ b/content.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
@@ -57,9 +57,6 @@
     <t>A whole comic book based on the concept by Celine Keller. Click to visit her website and download the book.</t>
   </si>
   <si>
-    <t xml:space="preserve">A picture of discourses of climate delay out in the wild, at Berlin's Museum of Communication! </t>
-  </si>
-  <si>
     <t>https://www.klimafakten.de/kommunikation/poster-spiel-nicht-ich-nicht-jetzt-nicht-so-zu-spaet-mit-welchen-saetzen-klimaschutz</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>dod-comms-museum.png</t>
+  </si>
+  <si>
+    <t>A picture of discourses of climate delay out in the wild, at Berlin's Museum of Communication! We heard that this exhibit has now moved to Klimahaus Bremerhaven - click to visit their site.</t>
+  </si>
+  <si>
+    <t>https://www.klimahaus-bremerhaven.de/</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -448,7 +451,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -459,7 +462,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -470,26 +473,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -502,6 +508,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/content.xlsx
+++ b/content.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -85,6 +86,24 @@
   </si>
   <si>
     <t>https://www.klimahaus-bremerhaven.de/</t>
+  </si>
+  <si>
+    <t>coan-claims.png</t>
+  </si>
+  <si>
+    <t>The CARDS taxonomy of climate contrarian claims</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-021-01714-4</t>
+  </si>
+  <si>
+    <t>coan-trends.png</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s43247-024-01573-7/figures/5</t>
+  </si>
+  <si>
+    <t>Analysis of contrarian claims on twitter</t>
   </si>
 </sst>
 </file>
@@ -415,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,4 +531,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>